--- a/P4_components/Modèle-audit-SEO.xlsx
+++ b/P4_components/Modèle-audit-SEO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <t>Catégorie</t>
   </si>
@@ -215,9 +215,6 @@
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
   </si>
   <si>
-    <t>Les h1 et h2 ne sont pas assez optimisés, et leurs rôles sont mal définis</t>
-  </si>
-  <si>
     <t>Structurez votre contenu avec des titres H1 – H6. Rajoutez des synonymes ou rajoutez des éléments de contexte des mots clés principaux dans les H2.</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
   </si>
   <si>
     <t>https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Les h1 et h2 sont trop longs et ne contiennent pas assez de mots-clés. La hiérarchie des titres n'est pas respectée (h1 en premier puis h2, puis h3…)</t>
   </si>
   <si>
     <t>Google Analytics permet de récolter et d’analyser des informations sur son audience.
@@ -358,6 +352,12 @@
   </si>
   <si>
     <t>https://fr.semrush.com/blog/meta-keywords-en-seo/</t>
+  </si>
+  <si>
+    <t>Les titres ne sont pas assez optimisés, et leurs rôles sont mal définis</t>
+  </si>
+  <si>
+    <t>La hiérarchie des titres n'est pas respectée (h1 en premier puis h2, puis h3…)</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="95.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="2" spans="1:30" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -853,7 +853,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>28</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="3" spans="1:30" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="4" spans="1:30" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="6" spans="1:30" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>35</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="9" spans="1:30" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="11" spans="1:30" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>35</v>
@@ -1125,6 +1125,9 @@
       </c>
     </row>
     <row r="12" spans="1:30" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1132,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>60</v>
@@ -1155,24 +1158,24 @@
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="8" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>35</v>
@@ -1181,24 +1184,24 @@
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="15" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>32</v>
@@ -1207,19 +1210,19 @@
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H15" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="16" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -1230,19 +1233,19 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="H16" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1253,24 +1256,24 @@
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
@@ -1279,19 +1282,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -1302,19 +1305,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,21 +1328,21 @@
         <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -1348,19 +1351,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
